--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/15/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.36609999999999</v>
+        <v>16.45349999999999</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.8484</v>
+        <v>-12.89119999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.33170000000002</v>
+        <v>-22.32050000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.59949999999999</v>
+        <v>-21.44979999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.50680000000001</v>
+        <v>-21.57810000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.40119999999998</v>
+        <v>-14.17929999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,19 +734,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.4366</v>
+        <v>-21.4515</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.2273</v>
+        <v>-10.3462</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.65210000000002</v>
+        <v>18.77640000000002</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.44020000000001</v>
+        <v>16.49410000000002</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.25930000000001</v>
+        <v>-11.90920000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.39059999999998</v>
+        <v>16.4761</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.084</v>
+        <v>-11.4689</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.0628</v>
+        <v>-12.5365</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.11069999999999</v>
+        <v>-12.7168</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.48230000000001</v>
+        <v>16.4785</v>
       </c>
     </row>
     <row r="32">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.30650000000001</v>
+        <v>-20.12420000000001</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.45599999999999</v>
+        <v>16.17419999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.71070000000001</v>
+        <v>-12.41050000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.42250000000001</v>
+        <v>16.2723</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.28319999999999</v>
+        <v>16.37339999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.42179999999998</v>
+        <v>16.44909999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.70709999999999</v>
+        <v>-13.5201</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.16709999999999</v>
+        <v>-22.3486</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.406</v>
+        <v>16.18530000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.32880000000001</v>
+        <v>17.25880000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.6466</v>
+        <v>-21.6668</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.5289</v>
+        <v>-11.3927</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.58250000000001</v>
+        <v>17.3797</v>
       </c>
     </row>
     <row r="74">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.1942</v>
+        <v>-12.18530000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.67159999999999</v>
+        <v>-20.81859999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.16609999999998</v>
+        <v>-20.47179999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.84670000000001</v>
+        <v>-21.7619</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.0917</v>
+        <v>-21.99490000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.62699999999998</v>
+        <v>-13.73559999999998</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.91529999999999</v>
+        <v>-12.96829999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.43539999999999</v>
+        <v>16.3978</v>
       </c>
     </row>
     <row r="91">
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.83170000000002</v>
+        <v>18.86210000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.15890000000002</v>
+        <v>18.21050000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.2076</v>
+        <v>-13.0194</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.97399999999999</v>
+        <v>-12.1268</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,13 +2151,13 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.67900000000001</v>
+        <v>-12.1743</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.67740000000002</v>
+        <v>16.62450000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.88550000000001</v>
+        <v>-13.0364</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
